--- a/Imagens/imagens.xlsx
+++ b/Imagens/imagens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso - Power BI - Experience\Projeto pessoal\ProjetoCotaParlamentar\ProjetoCotaParlamentar\Imagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BE0F3-76EA-4B48-A286-F276EDF976CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07772AFE-3F91-45DA-8AF1-A2FF64C53447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A96F782B-B765-449B-A40A-86BF4D32D544}"/>
+    <workbookView xWindow="20310" yWindow="825" windowWidth="20910" windowHeight="9060" activeTab="1" xr2:uid="{A96F782B-B765-449B-A40A-86BF4D32D544}"/>
   </bookViews>
   <sheets>
     <sheet name="Auxiliar-Deputados" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3683" uniqueCount="1296">
   <si>
     <t>Amapá</t>
   </si>
@@ -3666,9 +3666,6 @@
   </si>
   <si>
     <t>ideCadastro</t>
-  </si>
-  <si>
-    <t>Amapa</t>
   </si>
   <si>
     <t>Rio Grande do Sul</t>
@@ -4350,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B84B2A9-831D-48D2-92A0-06C1975D5858}">
   <dimension ref="A1:H599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
@@ -4370,25 +4367,25 @@
         <v>1209</v>
       </c>
       <c r="B1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1" t="s">
         <v>1271</v>
       </c>
-      <c r="C1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1272</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1273</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1274</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4402,7 +4399,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>25</v>
@@ -4428,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -4454,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>26</v>
@@ -4480,7 +4477,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
@@ -4506,7 +4503,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>26</v>
@@ -4532,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>25</v>
@@ -4558,7 +4555,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>25</v>
@@ -4584,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>25</v>
@@ -4610,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>26</v>
@@ -4636,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>26</v>
@@ -4662,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
@@ -4688,7 +4685,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -4714,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
@@ -4740,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -4766,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>25</v>
@@ -4792,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -4818,7 +4815,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>25</v>
@@ -4844,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>25</v>
@@ -4870,7 +4867,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>25</v>
@@ -4896,7 +4893,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>26</v>
@@ -4922,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
@@ -4948,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>26</v>
@@ -4974,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>25</v>
@@ -5000,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>25</v>
@@ -5026,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>25</v>
@@ -5052,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>26</v>
@@ -5078,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
@@ -5104,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>26</v>
@@ -5130,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>25</v>
@@ -5156,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>26</v>
@@ -5182,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>25</v>
@@ -5208,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>25</v>
@@ -5234,7 +5231,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>25</v>
@@ -5260,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>25</v>
@@ -5286,7 +5283,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>25</v>
@@ -5312,7 +5309,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>25</v>
@@ -5338,7 +5335,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>25</v>
@@ -5364,7 +5361,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>25</v>
@@ -5390,7 +5387,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>25</v>
@@ -5416,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>25</v>
@@ -5442,7 +5439,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>25</v>
@@ -5468,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>25</v>
@@ -5494,7 +5491,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>25</v>
@@ -5520,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>26</v>
@@ -5546,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>25</v>
@@ -5572,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>25</v>
@@ -5598,7 +5595,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>25</v>
@@ -5624,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>25</v>
@@ -5650,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>25</v>
@@ -5676,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>25</v>
@@ -5702,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>25</v>
@@ -5728,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>25</v>
@@ -5754,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>25</v>
@@ -5780,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>25</v>
@@ -5806,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>25</v>
@@ -5832,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>25</v>
@@ -5858,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>25</v>
@@ -5884,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>25</v>
@@ -5910,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>25</v>
@@ -5936,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>25</v>
@@ -5962,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>25</v>
@@ -5988,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>25</v>
@@ -6014,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>25</v>
@@ -6040,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>25</v>
@@ -6066,7 +6063,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>26</v>
@@ -6092,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>25</v>
@@ -6118,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>25</v>
@@ -6144,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>25</v>
@@ -6170,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>25</v>
@@ -6196,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>25</v>
@@ -6222,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>25</v>
@@ -6248,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>25</v>
@@ -6274,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>25</v>
@@ -6300,7 +6297,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>26</v>
@@ -6326,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>25</v>
@@ -6352,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>25</v>
@@ -6378,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>25</v>
@@ -6404,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>26</v>
@@ -6430,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>25</v>
@@ -6456,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>25</v>
@@ -6482,7 +6479,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>25</v>
@@ -6508,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>25</v>
@@ -6534,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>25</v>
@@ -6560,7 +6557,7 @@
         <v>103</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>25</v>
@@ -6586,7 +6583,7 @@
         <v>103</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>25</v>
@@ -6612,7 +6609,7 @@
         <v>103</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>25</v>
@@ -6638,7 +6635,7 @@
         <v>103</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>25</v>
@@ -6664,7 +6661,7 @@
         <v>103</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>25</v>
@@ -6690,7 +6687,7 @@
         <v>103</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>25</v>
@@ -6716,7 +6713,7 @@
         <v>103</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>25</v>
@@ -6742,7 +6739,7 @@
         <v>103</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>25</v>
@@ -6768,7 +6765,7 @@
         <v>103</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>25</v>
@@ -6794,7 +6791,7 @@
         <v>103</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>25</v>
@@ -6820,7 +6817,7 @@
         <v>103</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>25</v>
@@ -6846,7 +6843,7 @@
         <v>103</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>25</v>
@@ -6872,7 +6869,7 @@
         <v>103</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>25</v>
@@ -6898,7 +6895,7 @@
         <v>103</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>26</v>
@@ -6924,7 +6921,7 @@
         <v>103</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>25</v>
@@ -6950,7 +6947,7 @@
         <v>103</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>25</v>
@@ -6976,7 +6973,7 @@
         <v>103</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>25</v>
@@ -7002,7 +6999,7 @@
         <v>103</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>25</v>
@@ -7028,7 +7025,7 @@
         <v>103</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>25</v>
@@ -7054,7 +7051,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>25</v>
@@ -7080,7 +7077,7 @@
         <v>103</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>26</v>
@@ -7106,7 +7103,7 @@
         <v>103</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>25</v>
@@ -7132,7 +7129,7 @@
         <v>103</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>25</v>
@@ -7158,7 +7155,7 @@
         <v>103</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>25</v>
@@ -7184,7 +7181,7 @@
         <v>103</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>25</v>
@@ -7210,7 +7207,7 @@
         <v>103</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>25</v>
@@ -7236,7 +7233,7 @@
         <v>103</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>26</v>
@@ -7262,7 +7259,7 @@
         <v>103</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>25</v>
@@ -7288,7 +7285,7 @@
         <v>103</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>25</v>
@@ -7314,7 +7311,7 @@
         <v>103</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>25</v>
@@ -7340,7 +7337,7 @@
         <v>103</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>25</v>
@@ -7366,7 +7363,7 @@
         <v>103</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>25</v>
@@ -7392,7 +7389,7 @@
         <v>114</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>26</v>
@@ -7418,7 +7415,7 @@
         <v>114</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>26</v>
@@ -7444,7 +7441,7 @@
         <v>114</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>26</v>
@@ -7470,7 +7467,7 @@
         <v>114</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>26</v>
@@ -7496,7 +7493,7 @@
         <v>114</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>25</v>
@@ -7522,7 +7519,7 @@
         <v>114</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>25</v>
@@ -7548,7 +7545,7 @@
         <v>114</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>25</v>
@@ -7574,7 +7571,7 @@
         <v>114</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>26</v>
@@ -7600,7 +7597,7 @@
         <v>114</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>25</v>
@@ -7626,7 +7623,7 @@
         <v>114</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>25</v>
@@ -7652,7 +7649,7 @@
         <v>127</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>25</v>
@@ -7678,7 +7675,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>25</v>
@@ -7704,7 +7701,7 @@
         <v>127</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>26</v>
@@ -7730,7 +7727,7 @@
         <v>127</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>25</v>
@@ -7756,7 +7753,7 @@
         <v>127</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>25</v>
@@ -7782,7 +7779,7 @@
         <v>127</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>25</v>
@@ -7808,7 +7805,7 @@
         <v>127</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>26</v>
@@ -7834,7 +7831,7 @@
         <v>127</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>25</v>
@@ -7860,7 +7857,7 @@
         <v>127</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>26</v>
@@ -7886,7 +7883,7 @@
         <v>127</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>25</v>
@@ -7912,7 +7909,7 @@
         <v>127</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>25</v>
@@ -7938,7 +7935,7 @@
         <v>127</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>25</v>
@@ -7964,7 +7961,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>25</v>
@@ -7990,7 +7987,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>25</v>
@@ -8016,7 +8013,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>25</v>
@@ -8042,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>25</v>
@@ -8068,7 +8065,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>25</v>
@@ -8094,7 +8091,7 @@
         <v>3</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>25</v>
@@ -8120,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>26</v>
@@ -8146,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>25</v>
@@ -8172,7 +8169,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>25</v>
@@ -8198,7 +8195,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>25</v>
@@ -8224,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>25</v>
@@ -8250,7 +8247,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>25</v>
@@ -8276,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>25</v>
@@ -8302,7 +8299,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>26</v>
@@ -8328,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>25</v>
@@ -8354,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>25</v>
@@ -8380,7 +8377,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>25</v>
@@ -8406,7 +8403,7 @@
         <v>193</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>25</v>
@@ -8432,7 +8429,7 @@
         <v>193</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>25</v>
@@ -8458,7 +8455,7 @@
         <v>193</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>25</v>
@@ -8484,7 +8481,7 @@
         <v>193</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>25</v>
@@ -8510,7 +8507,7 @@
         <v>193</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>25</v>
@@ -8536,7 +8533,7 @@
         <v>193</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>25</v>
@@ -8562,7 +8559,7 @@
         <v>193</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>25</v>
@@ -8588,7 +8585,7 @@
         <v>193</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>25</v>
@@ -8614,7 +8611,7 @@
         <v>193</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>25</v>
@@ -8640,7 +8637,7 @@
         <v>193</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>25</v>
@@ -8666,7 +8663,7 @@
         <v>193</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>25</v>
@@ -8692,7 +8689,7 @@
         <v>193</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>25</v>
@@ -8718,7 +8715,7 @@
         <v>193</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>25</v>
@@ -8744,7 +8741,7 @@
         <v>193</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>25</v>
@@ -8770,7 +8767,7 @@
         <v>193</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>25</v>
@@ -8796,7 +8793,7 @@
         <v>193</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>25</v>
@@ -8822,7 +8819,7 @@
         <v>193</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>25</v>
@@ -8848,7 +8845,7 @@
         <v>193</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>25</v>
@@ -8874,7 +8871,7 @@
         <v>193</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>25</v>
@@ -8900,7 +8897,7 @@
         <v>193</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>25</v>
@@ -8926,7 +8923,7 @@
         <v>193</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>25</v>
@@ -8952,7 +8949,7 @@
         <v>193</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>25</v>
@@ -8978,7 +8975,7 @@
         <v>193</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>25</v>
@@ -9004,7 +9001,7 @@
         <v>193</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>25</v>
@@ -9030,7 +9027,7 @@
         <v>265</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>25</v>
@@ -9056,7 +9053,7 @@
         <v>265</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>25</v>
@@ -9082,7 +9079,7 @@
         <v>265</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>25</v>
@@ -9108,7 +9105,7 @@
         <v>265</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>25</v>
@@ -9134,7 +9131,7 @@
         <v>265</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>25</v>
@@ -9160,7 +9157,7 @@
         <v>265</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>25</v>
@@ -9186,7 +9183,7 @@
         <v>265</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>25</v>
@@ -9212,7 +9209,7 @@
         <v>265</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>26</v>
@@ -9238,7 +9235,7 @@
         <v>265</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>25</v>
@@ -9264,7 +9261,7 @@
         <v>264</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>25</v>
@@ -9290,7 +9287,7 @@
         <v>264</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>26</v>
@@ -9316,7 +9313,7 @@
         <v>264</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>25</v>
@@ -9342,7 +9339,7 @@
         <v>264</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>25</v>
@@ -9368,7 +9365,7 @@
         <v>264</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>25</v>
@@ -9394,7 +9391,7 @@
         <v>264</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>25</v>
@@ -9420,7 +9417,7 @@
         <v>264</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>25</v>
@@ -9446,7 +9443,7 @@
         <v>264</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>26</v>
@@ -9472,7 +9469,7 @@
         <v>264</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>26</v>
@@ -9498,7 +9495,7 @@
         <v>264</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>25</v>
@@ -9524,7 +9521,7 @@
         <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>25</v>
@@ -9550,7 +9547,7 @@
         <v>263</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>25</v>
@@ -9576,7 +9573,7 @@
         <v>263</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>26</v>
@@ -9602,7 +9599,7 @@
         <v>263</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>25</v>
@@ -9628,7 +9625,7 @@
         <v>263</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>26</v>
@@ -9654,7 +9651,7 @@
         <v>263</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>25</v>
@@ -9680,7 +9677,7 @@
         <v>263</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>25</v>
@@ -9706,7 +9703,7 @@
         <v>263</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>25</v>
@@ -9732,7 +9729,7 @@
         <v>263</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>25</v>
@@ -9758,7 +9755,7 @@
         <v>263</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>25</v>
@@ -9784,7 +9781,7 @@
         <v>263</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>25</v>
@@ -9810,7 +9807,7 @@
         <v>263</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>25</v>
@@ -9836,7 +9833,7 @@
         <v>263</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>25</v>
@@ -9862,7 +9859,7 @@
         <v>263</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>25</v>
@@ -9888,7 +9885,7 @@
         <v>263</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>25</v>
@@ -9914,7 +9911,7 @@
         <v>263</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>25</v>
@@ -9940,7 +9937,7 @@
         <v>263</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>25</v>
@@ -9966,7 +9963,7 @@
         <v>263</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>25</v>
@@ -9992,7 +9989,7 @@
         <v>263</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>25</v>
@@ -10018,7 +10015,7 @@
         <v>263</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>25</v>
@@ -10044,7 +10041,7 @@
         <v>263</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>25</v>
@@ -10070,7 +10067,7 @@
         <v>263</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>25</v>
@@ -10096,7 +10093,7 @@
         <v>263</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>25</v>
@@ -10122,7 +10119,7 @@
         <v>263</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>26</v>
@@ -10148,7 +10145,7 @@
         <v>263</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>25</v>
@@ -10174,7 +10171,7 @@
         <v>263</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>25</v>
@@ -10200,7 +10197,7 @@
         <v>263</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>25</v>
@@ -10226,7 +10223,7 @@
         <v>263</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>25</v>
@@ -10252,7 +10249,7 @@
         <v>263</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>25</v>
@@ -10278,7 +10275,7 @@
         <v>263</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>25</v>
@@ -10304,7 +10301,7 @@
         <v>263</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>25</v>
@@ -10330,7 +10327,7 @@
         <v>263</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>25</v>
@@ -10356,7 +10353,7 @@
         <v>263</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>25</v>
@@ -10382,7 +10379,7 @@
         <v>263</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>25</v>
@@ -10408,7 +10405,7 @@
         <v>263</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>25</v>
@@ -10434,7 +10431,7 @@
         <v>263</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>25</v>
@@ -10460,7 +10457,7 @@
         <v>263</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>26</v>
@@ -10486,7 +10483,7 @@
         <v>263</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>25</v>
@@ -10512,7 +10509,7 @@
         <v>263</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>25</v>
@@ -10538,7 +10535,7 @@
         <v>263</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>25</v>
@@ -10564,7 +10561,7 @@
         <v>263</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>25</v>
@@ -10590,7 +10587,7 @@
         <v>263</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>25</v>
@@ -10616,7 +10613,7 @@
         <v>263</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>25</v>
@@ -10642,7 +10639,7 @@
         <v>263</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>25</v>
@@ -10668,7 +10665,7 @@
         <v>263</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>25</v>
@@ -10694,7 +10691,7 @@
         <v>263</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>25</v>
@@ -10720,7 +10717,7 @@
         <v>263</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>25</v>
@@ -10746,7 +10743,7 @@
         <v>263</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>25</v>
@@ -10772,7 +10769,7 @@
         <v>263</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>25</v>
@@ -10798,7 +10795,7 @@
         <v>263</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>25</v>
@@ -10824,7 +10821,7 @@
         <v>263</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>25</v>
@@ -10850,7 +10847,7 @@
         <v>263</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>25</v>
@@ -10876,7 +10873,7 @@
         <v>263</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>25</v>
@@ -10902,7 +10899,7 @@
         <v>263</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E252" s="5" t="s">
         <v>25</v>
@@ -10928,7 +10925,7 @@
         <v>263</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>25</v>
@@ -10954,7 +10951,7 @@
         <v>263</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>25</v>
@@ -10980,7 +10977,7 @@
         <v>263</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>25</v>
@@ -11006,7 +11003,7 @@
         <v>266</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>25</v>
@@ -11032,7 +11029,7 @@
         <v>266</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>25</v>
@@ -11058,7 +11055,7 @@
         <v>266</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>25</v>
@@ -11084,7 +11081,7 @@
         <v>266</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>25</v>
@@ -11110,7 +11107,7 @@
         <v>266</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>25</v>
@@ -11136,7 +11133,7 @@
         <v>266</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>25</v>
@@ -11162,7 +11159,7 @@
         <v>266</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>25</v>
@@ -11188,7 +11185,7 @@
         <v>266</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>25</v>
@@ -11214,7 +11211,7 @@
         <v>266</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>26</v>
@@ -11240,7 +11237,7 @@
         <v>266</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>25</v>
@@ -11266,7 +11263,7 @@
         <v>266</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>25</v>
@@ -11292,7 +11289,7 @@
         <v>266</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>25</v>
@@ -11318,7 +11315,7 @@
         <v>266</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>25</v>
@@ -11344,7 +11341,7 @@
         <v>266</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>25</v>
@@ -11370,7 +11367,7 @@
         <v>266</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>25</v>
@@ -11396,7 +11393,7 @@
         <v>266</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>25</v>
@@ -11422,7 +11419,7 @@
         <v>266</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>25</v>
@@ -11448,7 +11445,7 @@
         <v>266</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>26</v>
@@ -11474,7 +11471,7 @@
         <v>283</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>25</v>
@@ -11500,7 +11497,7 @@
         <v>283</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>25</v>
@@ -11526,7 +11523,7 @@
         <v>283</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>26</v>
@@ -11552,7 +11549,7 @@
         <v>283</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>25</v>
@@ -11578,7 +11575,7 @@
         <v>283</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>26</v>
@@ -11604,7 +11601,7 @@
         <v>283</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>25</v>
@@ -11630,7 +11627,7 @@
         <v>283</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>25</v>
@@ -11656,7 +11653,7 @@
         <v>283</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>25</v>
@@ -11682,7 +11679,7 @@
         <v>283</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>25</v>
@@ -11708,7 +11705,7 @@
         <v>283</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>25</v>
@@ -11734,7 +11731,7 @@
         <v>283</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>25</v>
@@ -11760,7 +11757,7 @@
         <v>283</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>25</v>
@@ -11786,7 +11783,7 @@
         <v>283</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>25</v>
@@ -11812,7 +11809,7 @@
         <v>283</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>25</v>
@@ -11838,7 +11835,7 @@
         <v>283</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>25</v>
@@ -11864,7 +11861,7 @@
         <v>283</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>25</v>
@@ -11890,7 +11887,7 @@
         <v>352</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>25</v>
@@ -11916,7 +11913,7 @@
         <v>352</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>26</v>
@@ -11942,7 +11939,7 @@
         <v>352</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>25</v>
@@ -11968,7 +11965,7 @@
         <v>352</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>25</v>
@@ -11994,7 +11991,7 @@
         <v>352</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>26</v>
@@ -12020,7 +12017,7 @@
         <v>352</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>25</v>
@@ -12046,7 +12043,7 @@
         <v>352</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>25</v>
@@ -12072,7 +12069,7 @@
         <v>352</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>25</v>
@@ -12098,7 +12095,7 @@
         <v>352</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>25</v>
@@ -12124,7 +12121,7 @@
         <v>352</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>25</v>
@@ -12150,7 +12147,7 @@
         <v>352</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>26</v>
@@ -12176,7 +12173,7 @@
         <v>352</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>25</v>
@@ -12202,7 +12199,7 @@
         <v>352</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>25</v>
@@ -12228,7 +12225,7 @@
         <v>352</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>26</v>
@@ -12254,7 +12251,7 @@
         <v>352</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>25</v>
@@ -12280,7 +12277,7 @@
         <v>352</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>26</v>
@@ -12306,7 +12303,7 @@
         <v>352</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>25</v>
@@ -12332,7 +12329,7 @@
         <v>352</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>25</v>
@@ -12358,7 +12355,7 @@
         <v>352</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>25</v>
@@ -12384,7 +12381,7 @@
         <v>352</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>25</v>
@@ -12410,7 +12407,7 @@
         <v>352</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>25</v>
@@ -12436,7 +12433,7 @@
         <v>352</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>25</v>
@@ -12462,7 +12459,7 @@
         <v>352</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>25</v>
@@ -12488,7 +12485,7 @@
         <v>352</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>25</v>
@@ -12514,7 +12511,7 @@
         <v>352</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>25</v>
@@ -12540,7 +12537,7 @@
         <v>352</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>25</v>
@@ -12566,7 +12563,7 @@
         <v>352</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>25</v>
@@ -12592,7 +12589,7 @@
         <v>352</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>25</v>
@@ -12618,7 +12615,7 @@
         <v>352</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>25</v>
@@ -12644,7 +12641,7 @@
         <v>352</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>25</v>
@@ -12670,7 +12667,7 @@
         <v>352</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>25</v>
@@ -12696,7 +12693,7 @@
         <v>352</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>25</v>
@@ -12722,7 +12719,7 @@
         <v>352</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>25</v>
@@ -12748,7 +12745,7 @@
         <v>352</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>25</v>
@@ -12774,7 +12771,7 @@
         <v>352</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>25</v>
@@ -12800,7 +12797,7 @@
         <v>310</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>25</v>
@@ -12826,7 +12823,7 @@
         <v>310</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>25</v>
@@ -12852,7 +12849,7 @@
         <v>310</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>25</v>
@@ -12878,7 +12875,7 @@
         <v>310</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>25</v>
@@ -12904,7 +12901,7 @@
         <v>310</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>25</v>
@@ -12930,7 +12927,7 @@
         <v>310</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>25</v>
@@ -12956,7 +12953,7 @@
         <v>310</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>25</v>
@@ -12982,7 +12979,7 @@
         <v>310</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>25</v>
@@ -13008,7 +13005,7 @@
         <v>310</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>25</v>
@@ -13034,7 +13031,7 @@
         <v>310</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>25</v>
@@ -13060,7 +13057,7 @@
         <v>310</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>25</v>
@@ -13086,7 +13083,7 @@
         <v>310</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>25</v>
@@ -13112,7 +13109,7 @@
         <v>310</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>25</v>
@@ -13138,7 +13135,7 @@
         <v>310</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>25</v>
@@ -13164,7 +13161,7 @@
         <v>310</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>26</v>
@@ -13190,7 +13187,7 @@
         <v>310</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>25</v>
@@ -13216,7 +13213,7 @@
         <v>310</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>25</v>
@@ -13242,7 +13239,7 @@
         <v>310</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>25</v>
@@ -13268,7 +13265,7 @@
         <v>310</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E343" s="3" t="s">
         <v>25</v>
@@ -13294,7 +13291,7 @@
         <v>310</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>25</v>
@@ -13320,7 +13317,7 @@
         <v>310</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>25</v>
@@ -13346,7 +13343,7 @@
         <v>310</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>25</v>
@@ -13372,7 +13369,7 @@
         <v>310</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E347" s="3" t="s">
         <v>25</v>
@@ -13398,7 +13395,7 @@
         <v>310</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>25</v>
@@ -13424,7 +13421,7 @@
         <v>310</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>25</v>
@@ -13450,7 +13447,7 @@
         <v>310</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>25</v>
@@ -13476,7 +13473,7 @@
         <v>323</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>25</v>
@@ -13502,7 +13499,7 @@
         <v>323</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>25</v>
@@ -13528,7 +13525,7 @@
         <v>323</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>25</v>
@@ -13554,7 +13551,7 @@
         <v>323</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>25</v>
@@ -13580,7 +13577,7 @@
         <v>323</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>26</v>
@@ -13606,7 +13603,7 @@
         <v>323</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>25</v>
@@ -13632,7 +13629,7 @@
         <v>323</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>25</v>
@@ -13658,7 +13655,7 @@
         <v>323</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>26</v>
@@ -13684,7 +13681,7 @@
         <v>323</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E359" s="3" t="s">
         <v>26</v>
@@ -13710,7 +13707,7 @@
         <v>323</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>25</v>
@@ -13736,7 +13733,7 @@
         <v>323</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>25</v>
@@ -13762,7 +13759,7 @@
         <v>323</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>26</v>
@@ -13788,7 +13785,7 @@
         <v>389</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>25</v>
@@ -13814,7 +13811,7 @@
         <v>389</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>25</v>
@@ -13840,7 +13837,7 @@
         <v>389</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E365" s="3" t="s">
         <v>25</v>
@@ -13866,7 +13863,7 @@
         <v>389</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>25</v>
@@ -13892,7 +13889,7 @@
         <v>389</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>26</v>
@@ -13918,7 +13915,7 @@
         <v>389</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>25</v>
@@ -13944,7 +13941,7 @@
         <v>389</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>25</v>
@@ -13970,7 +13967,7 @@
         <v>389</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>25</v>
@@ -13996,7 +13993,7 @@
         <v>389</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E371" s="3" t="s">
         <v>26</v>
@@ -14022,7 +14019,7 @@
         <v>389</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>25</v>
@@ -14048,7 +14045,7 @@
         <v>389</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>26</v>
@@ -14074,7 +14071,7 @@
         <v>389</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>25</v>
@@ -14100,7 +14097,7 @@
         <v>389</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>26</v>
@@ -14126,7 +14123,7 @@
         <v>389</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>25</v>
@@ -14152,7 +14149,7 @@
         <v>389</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>25</v>
@@ -14178,7 +14175,7 @@
         <v>389</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>25</v>
@@ -14204,7 +14201,7 @@
         <v>389</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>25</v>
@@ -14230,7 +14227,7 @@
         <v>389</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>26</v>
@@ -14256,7 +14253,7 @@
         <v>389</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>25</v>
@@ -14282,7 +14279,7 @@
         <v>389</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>25</v>
@@ -14308,7 +14305,7 @@
         <v>389</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>25</v>
@@ -14334,7 +14331,7 @@
         <v>389</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>25</v>
@@ -14360,7 +14357,7 @@
         <v>389</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>25</v>
@@ -14386,7 +14383,7 @@
         <v>389</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>25</v>
@@ -14412,7 +14409,7 @@
         <v>389</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>26</v>
@@ -14438,7 +14435,7 @@
         <v>389</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>25</v>
@@ -14464,7 +14461,7 @@
         <v>389</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>25</v>
@@ -14490,7 +14487,7 @@
         <v>389</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>25</v>
@@ -14516,7 +14513,7 @@
         <v>389</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>25</v>
@@ -14542,7 +14539,7 @@
         <v>389</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>26</v>
@@ -14568,7 +14565,7 @@
         <v>389</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>25</v>
@@ -14594,7 +14591,7 @@
         <v>389</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>25</v>
@@ -14620,7 +14617,7 @@
         <v>389</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>25</v>
@@ -14646,7 +14643,7 @@
         <v>389</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>25</v>
@@ -14672,7 +14669,7 @@
         <v>389</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>26</v>
@@ -14698,7 +14695,7 @@
         <v>389</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>25</v>
@@ -14724,7 +14721,7 @@
         <v>389</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>25</v>
@@ -14750,7 +14747,7 @@
         <v>389</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>25</v>
@@ -14776,7 +14773,7 @@
         <v>389</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>25</v>
@@ -14802,7 +14799,7 @@
         <v>389</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>25</v>
@@ -14828,7 +14825,7 @@
         <v>389</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E403" s="3" t="s">
         <v>25</v>
@@ -14854,7 +14851,7 @@
         <v>389</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>25</v>
@@ -14880,7 +14877,7 @@
         <v>389</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>25</v>
@@ -14906,7 +14903,7 @@
         <v>389</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>25</v>
@@ -14932,7 +14929,7 @@
         <v>389</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>25</v>
@@ -14958,7 +14955,7 @@
         <v>389</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>25</v>
@@ -14984,7 +14981,7 @@
         <v>389</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>25</v>
@@ -15010,7 +15007,7 @@
         <v>389</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>25</v>
@@ -15036,7 +15033,7 @@
         <v>389</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>25</v>
@@ -15062,7 +15059,7 @@
         <v>389</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>25</v>
@@ -15088,7 +15085,7 @@
         <v>389</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E413" s="3" t="s">
         <v>26</v>
@@ -15114,7 +15111,7 @@
         <v>389</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>26</v>
@@ -15140,7 +15137,7 @@
         <v>389</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E415" s="3" t="s">
         <v>25</v>
@@ -15166,7 +15163,7 @@
         <v>389</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>26</v>
@@ -15192,7 +15189,7 @@
         <v>389</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E417" s="3" t="s">
         <v>25</v>
@@ -15218,7 +15215,7 @@
         <v>389</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>25</v>
@@ -15244,7 +15241,7 @@
         <v>389</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>25</v>
@@ -15270,7 +15267,7 @@
         <v>431</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>25</v>
@@ -15296,7 +15293,7 @@
         <v>431</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>25</v>
@@ -15322,7 +15319,7 @@
         <v>431</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>26</v>
@@ -15348,7 +15345,7 @@
         <v>431</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>25</v>
@@ -15374,7 +15371,7 @@
         <v>431</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>25</v>
@@ -15400,7 +15397,7 @@
         <v>431</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>25</v>
@@ -15426,7 +15423,7 @@
         <v>431</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>26</v>
@@ -15452,7 +15449,7 @@
         <v>431</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>25</v>
@@ -15478,7 +15475,7 @@
         <v>431</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>25</v>
@@ -15504,7 +15501,7 @@
         <v>477</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E429" s="3" t="s">
         <v>25</v>
@@ -15530,7 +15527,7 @@
         <v>477</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>25</v>
@@ -15556,7 +15553,7 @@
         <v>477</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>25</v>
@@ -15582,7 +15579,7 @@
         <v>477</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>25</v>
@@ -15608,7 +15605,7 @@
         <v>477</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>25</v>
@@ -15634,7 +15631,7 @@
         <v>477</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>25</v>
@@ -15660,7 +15657,7 @@
         <v>477</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>25</v>
@@ -15686,7 +15683,7 @@
         <v>477</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>25</v>
@@ -15712,7 +15709,7 @@
         <v>477</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>25</v>
@@ -15738,7 +15735,7 @@
         <v>477</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>25</v>
@@ -15764,7 +15761,7 @@
         <v>477</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>26</v>
@@ -15790,7 +15787,7 @@
         <v>477</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E440" s="5" t="s">
         <v>25</v>
@@ -15816,7 +15813,7 @@
         <v>477</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>25</v>
@@ -15842,7 +15839,7 @@
         <v>477</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>25</v>
@@ -15868,7 +15865,7 @@
         <v>477</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>25</v>
@@ -15894,7 +15891,7 @@
         <v>477</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>25</v>
@@ -15920,7 +15917,7 @@
         <v>477</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>26</v>
@@ -15946,7 +15943,7 @@
         <v>477</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>25</v>
@@ -15972,7 +15969,7 @@
         <v>477</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>25</v>
@@ -15998,7 +15995,7 @@
         <v>477</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E448" s="5" t="s">
         <v>25</v>
@@ -16024,7 +16021,7 @@
         <v>477</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>25</v>
@@ -16050,7 +16047,7 @@
         <v>477</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>25</v>
@@ -16076,7 +16073,7 @@
         <v>477</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>25</v>
@@ -16102,7 +16099,7 @@
         <v>477</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E452" s="5" t="s">
         <v>26</v>
@@ -16128,7 +16125,7 @@
         <v>477</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>25</v>
@@ -16148,13 +16145,13 @@
         <v>75431</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>25</v>
@@ -16166,7 +16163,7 @@
         <v>29062</v>
       </c>
       <c r="H454" s="15" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -16174,13 +16171,13 @@
         <v>204415</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>25</v>
@@ -16192,7 +16189,7 @@
         <v>23213</v>
       </c>
       <c r="H455" s="15" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -16200,13 +16197,13 @@
         <v>74399</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>25</v>
@@ -16218,7 +16215,7 @@
         <v>20000</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -16226,13 +16223,13 @@
         <v>73692</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>25</v>
@@ -16244,7 +16241,7 @@
         <v>18312</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -16252,13 +16249,13 @@
         <v>74400</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>477</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>25</v>
@@ -16270,7 +16267,7 @@
         <v>23820</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -16278,13 +16275,13 @@
         <v>216544</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E459" s="5" t="s">
         <v>25</v>
@@ -16296,7 +16293,7 @@
         <v>17762</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -16304,13 +16301,13 @@
         <v>204406</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E460" s="5" t="s">
         <v>25</v>
@@ -16322,7 +16319,7 @@
         <v>18616</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -16330,13 +16327,13 @@
         <v>73486</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>25</v>
@@ -16348,7 +16345,7 @@
         <v>21378</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -16356,13 +16353,13 @@
         <v>204416</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>25</v>
@@ -16374,7 +16371,7 @@
         <v>25538</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -16382,13 +16379,13 @@
         <v>90842</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>477</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>25</v>
@@ -16400,7 +16397,7 @@
         <v>26939</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -16414,7 +16411,7 @@
         <v>441</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>25</v>
@@ -16440,7 +16437,7 @@
         <v>441</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>25</v>
@@ -16466,7 +16463,7 @@
         <v>441</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E466" s="5" t="s">
         <v>26</v>
@@ -16492,7 +16489,7 @@
         <v>441</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E467" s="3" t="s">
         <v>25</v>
@@ -16518,7 +16515,7 @@
         <v>441</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E468" s="5" t="s">
         <v>25</v>
@@ -16544,7 +16541,7 @@
         <v>441</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>25</v>
@@ -16570,7 +16567,7 @@
         <v>441</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>26</v>
@@ -16596,7 +16593,7 @@
         <v>441</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>25</v>
@@ -16622,7 +16619,7 @@
         <v>441</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>26</v>
@@ -16648,7 +16645,7 @@
         <v>451</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E473" s="3" t="s">
         <v>25</v>
@@ -16674,7 +16671,7 @@
         <v>451</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>25</v>
@@ -16700,7 +16697,7 @@
         <v>451</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>25</v>
@@ -16726,7 +16723,7 @@
         <v>451</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E476" s="5" t="s">
         <v>25</v>
@@ -16752,7 +16749,7 @@
         <v>451</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E477" s="3" t="s">
         <v>26</v>
@@ -16778,7 +16775,7 @@
         <v>451</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E478" s="5" t="s">
         <v>26</v>
@@ -16804,7 +16801,7 @@
         <v>451</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E479" s="3" t="s">
         <v>25</v>
@@ -16830,7 +16827,7 @@
         <v>451</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>25</v>
@@ -16856,7 +16853,7 @@
         <v>451</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E481" s="3" t="s">
         <v>25</v>
@@ -16882,7 +16879,7 @@
         <v>497</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E482" s="5" t="s">
         <v>26</v>
@@ -16908,7 +16905,7 @@
         <v>497</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E483" s="3" t="s">
         <v>25</v>
@@ -16934,7 +16931,7 @@
         <v>497</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E484" s="5" t="s">
         <v>26</v>
@@ -16960,7 +16957,7 @@
         <v>497</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E485" s="3" t="s">
         <v>26</v>
@@ -16986,7 +16983,7 @@
         <v>497</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E486" s="5" t="s">
         <v>25</v>
@@ -17012,7 +17009,7 @@
         <v>497</v>
       </c>
       <c r="D487" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E487" s="3" t="s">
         <v>25</v>
@@ -17038,7 +17035,7 @@
         <v>497</v>
       </c>
       <c r="D488" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E488" s="5" t="s">
         <v>25</v>
@@ -17064,7 +17061,7 @@
         <v>497</v>
       </c>
       <c r="D489" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E489" s="3" t="s">
         <v>25</v>
@@ -17090,7 +17087,7 @@
         <v>497</v>
       </c>
       <c r="D490" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E490" s="5" t="s">
         <v>25</v>
@@ -17116,7 +17113,7 @@
         <v>497</v>
       </c>
       <c r="D491" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E491" s="3" t="s">
         <v>26</v>
@@ -17142,7 +17139,7 @@
         <v>497</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E492" s="5" t="s">
         <v>25</v>
@@ -17168,7 +17165,7 @@
         <v>497</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E493" s="3" t="s">
         <v>25</v>
@@ -17194,7 +17191,7 @@
         <v>497</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E494" s="5" t="s">
         <v>25</v>
@@ -17220,7 +17217,7 @@
         <v>497</v>
       </c>
       <c r="D495" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>25</v>
@@ -17246,7 +17243,7 @@
         <v>497</v>
       </c>
       <c r="D496" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E496" s="5" t="s">
         <v>26</v>
@@ -17272,7 +17269,7 @@
         <v>497</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>25</v>
@@ -17298,7 +17295,7 @@
         <v>497</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E498" s="5" t="s">
         <v>25</v>
@@ -17324,7 +17321,7 @@
         <v>497</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>25</v>
@@ -17350,7 +17347,7 @@
         <v>497</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E500" s="5" t="s">
         <v>25</v>
@@ -17376,7 +17373,7 @@
         <v>1</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E501" s="3" t="s">
         <v>25</v>
@@ -17402,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>26</v>
@@ -17428,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>25</v>
@@ -17454,7 +17451,7 @@
         <v>1</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E504" s="5" t="s">
         <v>25</v>
@@ -17480,7 +17477,7 @@
         <v>1</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E505" s="3" t="s">
         <v>25</v>
@@ -17506,7 +17503,7 @@
         <v>1</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E506" s="5" t="s">
         <v>25</v>
@@ -17532,7 +17529,7 @@
         <v>1</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E507" s="3" t="s">
         <v>25</v>
@@ -17558,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E508" s="5" t="s">
         <v>25</v>
@@ -17584,7 +17581,7 @@
         <v>1</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E509" s="3" t="s">
         <v>25</v>
@@ -17610,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E510" s="5" t="s">
         <v>25</v>
@@ -17636,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E511" s="3" t="s">
         <v>25</v>
@@ -17662,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E512" s="5" t="s">
         <v>25</v>
@@ -17688,7 +17685,7 @@
         <v>1</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>26</v>
@@ -17714,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E514" s="5" t="s">
         <v>25</v>
@@ -17740,7 +17737,7 @@
         <v>1</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E515" s="3" t="s">
         <v>25</v>
@@ -17766,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E516" s="5" t="s">
         <v>26</v>
@@ -17792,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E517" s="3" t="s">
         <v>25</v>
@@ -17818,7 +17815,7 @@
         <v>1</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E518" s="5" t="s">
         <v>25</v>
@@ -17844,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E519" s="3" t="s">
         <v>25</v>
@@ -17870,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E520" s="5" t="s">
         <v>25</v>
@@ -17896,7 +17893,7 @@
         <v>1</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E521" s="3" t="s">
         <v>25</v>
@@ -17922,7 +17919,7 @@
         <v>1</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>25</v>
@@ -17948,7 +17945,7 @@
         <v>1</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E523" s="3" t="s">
         <v>25</v>
@@ -17974,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E524" s="5" t="s">
         <v>25</v>
@@ -18000,7 +17997,7 @@
         <v>1</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E525" s="3" t="s">
         <v>25</v>
@@ -18026,7 +18023,7 @@
         <v>1</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E526" s="5" t="s">
         <v>25</v>
@@ -18052,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E527" s="3" t="s">
         <v>25</v>
@@ -18078,7 +18075,7 @@
         <v>1</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>26</v>
@@ -18104,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E529" s="3" t="s">
         <v>25</v>
@@ -18130,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>25</v>
@@ -18156,7 +18153,7 @@
         <v>1</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E531" s="3" t="s">
         <v>25</v>
@@ -18182,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E532" s="5" t="s">
         <v>25</v>
@@ -18208,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E533" s="3" t="s">
         <v>25</v>
@@ -18234,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E534" s="5" t="s">
         <v>25</v>
@@ -18260,7 +18257,7 @@
         <v>1</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E535" s="3" t="s">
         <v>25</v>
@@ -18286,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E536" s="5" t="s">
         <v>25</v>
@@ -18312,7 +18309,7 @@
         <v>1</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E537" s="3" t="s">
         <v>25</v>
@@ -18338,7 +18335,7 @@
         <v>1</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E538" s="5" t="s">
         <v>25</v>
@@ -18364,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E539" s="3" t="s">
         <v>25</v>
@@ -18390,7 +18387,7 @@
         <v>1</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E540" s="5" t="s">
         <v>26</v>
@@ -18416,7 +18413,7 @@
         <v>1</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E541" s="3" t="s">
         <v>25</v>
@@ -18442,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E542" s="5" t="s">
         <v>25</v>
@@ -18468,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E543" s="3" t="s">
         <v>25</v>
@@ -18494,7 +18491,7 @@
         <v>1</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E544" s="5" t="s">
         <v>25</v>
@@ -18520,7 +18517,7 @@
         <v>1</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E545" s="3" t="s">
         <v>25</v>
@@ -18546,7 +18543,7 @@
         <v>1</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E546" s="5" t="s">
         <v>26</v>
@@ -18572,7 +18569,7 @@
         <v>1</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E547" s="3" t="s">
         <v>25</v>
@@ -18598,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E548" s="5" t="s">
         <v>25</v>
@@ -18624,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>25</v>
@@ -18650,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>25</v>
@@ -18676,7 +18673,7 @@
         <v>1</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E551" s="3" t="s">
         <v>26</v>
@@ -18702,7 +18699,7 @@
         <v>1</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>25</v>
@@ -18728,7 +18725,7 @@
         <v>1</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E553" s="3" t="s">
         <v>25</v>
@@ -18754,7 +18751,7 @@
         <v>1</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E554" s="5" t="s">
         <v>25</v>
@@ -18780,7 +18777,7 @@
         <v>1</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>25</v>
@@ -18806,7 +18803,7 @@
         <v>1</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>25</v>
@@ -18832,7 +18829,7 @@
         <v>1</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>25</v>
@@ -18858,7 +18855,7 @@
         <v>1</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>25</v>
@@ -18884,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>25</v>
@@ -18910,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>26</v>
@@ -18936,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>25</v>
@@ -18962,7 +18959,7 @@
         <v>1</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E562" s="5" t="s">
         <v>26</v>
@@ -18988,7 +18985,7 @@
         <v>1</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>25</v>
@@ -19014,7 +19011,7 @@
         <v>1</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>25</v>
@@ -19040,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>25</v>
@@ -19066,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>25</v>
@@ -19092,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>25</v>
@@ -19118,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E568" s="5" t="s">
         <v>26</v>
@@ -19144,7 +19141,7 @@
         <v>1</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>25</v>
@@ -19170,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>26</v>
@@ -19196,7 +19193,7 @@
         <v>1</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>25</v>
@@ -19222,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E572" s="5" t="s">
         <v>25</v>
@@ -19248,7 +19245,7 @@
         <v>1</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>26</v>
@@ -19274,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E574" s="5" t="s">
         <v>25</v>
@@ -19300,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>25</v>
@@ -19326,7 +19323,7 @@
         <v>1</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E576" s="5" t="s">
         <v>25</v>
@@ -19352,7 +19349,7 @@
         <v>1</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>25</v>
@@ -19378,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E578" s="5" t="s">
         <v>25</v>
@@ -19404,7 +19401,7 @@
         <v>1</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>25</v>
@@ -19430,7 +19427,7 @@
         <v>508</v>
       </c>
       <c r="D580" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E580" s="5" t="s">
         <v>25</v>
@@ -19456,7 +19453,7 @@
         <v>508</v>
       </c>
       <c r="D581" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>25</v>
@@ -19482,7 +19479,7 @@
         <v>508</v>
       </c>
       <c r="D582" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E582" s="5" t="s">
         <v>25</v>
@@ -19508,7 +19505,7 @@
         <v>508</v>
       </c>
       <c r="D583" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>25</v>
@@ -19534,7 +19531,7 @@
         <v>508</v>
       </c>
       <c r="D584" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E584" s="5" t="s">
         <v>25</v>
@@ -19560,7 +19557,7 @@
         <v>508</v>
       </c>
       <c r="D585" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>25</v>
@@ -19586,7 +19583,7 @@
         <v>508</v>
       </c>
       <c r="D586" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E586" s="5" t="s">
         <v>25</v>
@@ -19612,7 +19609,7 @@
         <v>508</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>25</v>
@@ -19638,7 +19635,7 @@
         <v>508</v>
       </c>
       <c r="D588" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E588" s="5" t="s">
         <v>25</v>
@@ -19664,7 +19661,7 @@
         <v>508</v>
       </c>
       <c r="D589" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>25</v>
@@ -19690,7 +19687,7 @@
         <v>598</v>
       </c>
       <c r="D590" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E590" s="5" t="s">
         <v>25</v>
@@ -19716,7 +19713,7 @@
         <v>598</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>25</v>
@@ -19742,7 +19739,7 @@
         <v>598</v>
       </c>
       <c r="D592" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E592" s="5" t="s">
         <v>26</v>
@@ -19768,7 +19765,7 @@
         <v>598</v>
       </c>
       <c r="D593" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>25</v>
@@ -19794,7 +19791,7 @@
         <v>598</v>
       </c>
       <c r="D594" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E594" s="5" t="s">
         <v>25</v>
@@ -19820,7 +19817,7 @@
         <v>598</v>
       </c>
       <c r="D595" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>25</v>
@@ -19846,7 +19843,7 @@
         <v>598</v>
       </c>
       <c r="D596" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E596" s="5" t="s">
         <v>26</v>
@@ -19872,7 +19869,7 @@
         <v>598</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>25</v>
@@ -19898,7 +19895,7 @@
         <v>598</v>
       </c>
       <c r="D598" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E598" s="5" t="s">
         <v>25</v>
@@ -19924,7 +19921,7 @@
         <v>598</v>
       </c>
       <c r="D599" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E599" s="6" t="s">
         <v>25</v>
@@ -21146,8 +21143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9201BC20-A13B-4338-BE6B-30E942A6B2BD}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21158,24 +21155,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1" t="s">
         <v>1268</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1269</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21183,10 +21180,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -21194,21 +21191,21 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -21216,10 +21213,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -21227,10 +21224,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -21238,10 +21235,10 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -21249,10 +21246,10 @@
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -21260,10 +21257,10 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -21271,10 +21268,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -21282,10 +21279,10 @@
         <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -21293,10 +21290,10 @@
         <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -21304,10 +21301,10 @@
         <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -21315,10 +21312,10 @@
         <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -21326,10 +21323,10 @@
         <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -21337,10 +21334,10 @@
         <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -21348,10 +21345,10 @@
         <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -21359,10 +21356,10 @@
         <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -21370,10 +21367,10 @@
         <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -21381,10 +21378,10 @@
         <v>389</v>
       </c>
       <c r="B21" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -21392,21 +21389,21 @@
         <v>431</v>
       </c>
       <c r="B22" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B23" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -21414,10 +21411,10 @@
         <v>441</v>
       </c>
       <c r="B24" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -21425,10 +21422,10 @@
         <v>451</v>
       </c>
       <c r="B25" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -21436,10 +21433,10 @@
         <v>497</v>
       </c>
       <c r="B26" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -21447,10 +21444,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -21458,10 +21455,10 @@
         <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -21469,10 +21466,10 @@
         <v>598</v>
       </c>
       <c r="B29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
